--- a/EJEMPLOS EN EXCEL/BONILLA/R4XL-ACP.xlsx
+++ b/EJEMPLOS EN EXCEL/BONILLA/R4XL-ACP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\R4XCL\TESIS\EJEMPLOS EN EXCEL\BONILLA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\R4XCL\LIBRERIA\EJEMPLOS EN EXCEL\BONILLA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C753D9C-3BBD-4D3B-9722-7834A2D8EB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0333B7-8167-415D-BDF2-604843E3B933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{02ECA6AD-477E-4230-9F67-0B262FF37303}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{02ECA6AD-477E-4230-9F67-0B262FF37303}"/>
   </bookViews>
   <sheets>
     <sheet name="DATOS" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>Wyoming</t>
   </si>
@@ -257,16 +257,67 @@
   </si>
   <si>
     <t>ESCALAR DATOS</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Comp.1</t>
+  </si>
+  <si>
+    <t>Comp.2</t>
+  </si>
+  <si>
+    <t>Comp.3</t>
+  </si>
+  <si>
+    <t>Comp.4</t>
+  </si>
+  <si>
+    <t>SIGMA_2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sin </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exclusión de registros</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Con </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exclusión de registros</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,8 +352,24 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,8 +388,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -345,12 +424,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -361,22 +469,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -398,8 +506,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -407,6 +541,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3579,8 +3718,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC97652-6B65-4696-B2AD-5AAB829F79C3}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.45"/>
@@ -4520,26 +4662,26 @@
       <c r="P33" s="4"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A34" s="6">
+      <c r="A34" s="28">
         <v>33</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="27">
         <v>13</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="27">
         <v>337</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="27">
         <v>45</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="27">
         <v>16.100000000000001</v>
       </c>
-      <c r="G34" s="15">
-        <v>0</v>
+      <c r="G34" s="27">
+        <v>1</v>
       </c>
       <c r="L34" s="5"/>
       <c r="M34" s="4"/>
@@ -5030,10 +5172,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94CF432-0BC3-48E2-8F04-A089AA429AEE}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5046,83 +5188,254 @@
     <col min="8" max="8" width="10.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="str" cm="1">
+        <f t="array" ref="A3:E8">_xll.R.AD_ACP.C(DATOS!C1:F51,B21,DATOS!G1:G51,B20)</f>
+        <v/>
+      </c>
+      <c r="B3" s="2" t="str">
+        <v>Comp.1</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <v>Comp.2</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <v>Comp.3</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <v>Comp.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="20" t="str">
+        <v>Murder</v>
+      </c>
+      <c r="B4" s="23">
+        <v>0.52252038304073212</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0.44009712515848026</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0.43086303645059748</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0.58961344417743622</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="21" t="str">
+        <v>Assault</v>
+      </c>
+      <c r="B5" s="24">
+        <v>0.58266855994970335</v>
+      </c>
+      <c r="C5" s="24">
+        <v>0.1450345134740067</v>
+      </c>
+      <c r="D5" s="24">
+        <v>0.20350645461348421</v>
+      </c>
+      <c r="E5" s="24">
+        <v>-0.77333528438714527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="21" t="str">
+        <v>UrbanPop</v>
+      </c>
+      <c r="B6" s="24">
+        <v>0.30343383298741733</v>
+      </c>
+      <c r="C6" s="24">
+        <v>-0.88195735343791792</v>
+      </c>
+      <c r="D6" s="24">
+        <v>0.32818473841789114</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0.14957912015026606</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="21" t="str">
+        <v>Rape</v>
+      </c>
+      <c r="B7" s="24">
+        <v>0.5435050207235157</v>
+      </c>
+      <c r="C7" s="24">
+        <v>-8.6201722983838172E-2</v>
+      </c>
+      <c r="D7" s="24">
+        <v>-0.81562058839928842</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0.17870257743565682</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="22" t="str">
+        <v>SIGMA_2</v>
+      </c>
+      <c r="B8" s="26">
+        <v>2.5638683986264934</v>
+      </c>
+      <c r="C8" s="26">
+        <v>0.92951431006469232</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.34668046917498524</v>
+      </c>
+      <c r="E8" s="25">
+        <v>0.15993682213382676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="19"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="23">
+        <v>0.5358994749381556</v>
+      </c>
+      <c r="C12" s="23">
+        <v>0.41818086542095412</v>
+      </c>
+      <c r="D12" s="23">
+        <v>0.34123272795282866</v>
+      </c>
+      <c r="E12" s="23">
+        <v>0.64922780434194427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="24">
+        <v>0.58318363490967051</v>
+      </c>
+      <c r="C13" s="24">
+        <v>0.18798560423193858</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0.26814842783288489</v>
+      </c>
+      <c r="E13" s="24">
+        <v>-0.74340747993670964</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="24">
+        <v>0.27819087461943248</v>
+      </c>
+      <c r="C14" s="24">
+        <v>-0.87280619306042539</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0.37801579308699945</v>
+      </c>
+      <c r="E14" s="24">
+        <v>0.13387773082424759</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="24">
+        <v>0.5434320914456825</v>
+      </c>
+      <c r="C15" s="24">
+        <v>-0.16731863540174619</v>
+      </c>
+      <c r="D15" s="24">
+        <v>-0.81777790762616587</v>
+      </c>
+      <c r="E15" s="24">
+        <v>8.9024322703625036E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="26">
+        <v>2.4802415791494927</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0.98976515253983999</v>
+      </c>
+      <c r="D16" s="25">
+        <v>0.35656318058082986</v>
+      </c>
+      <c r="E16" s="25">
+        <v>0.17343008772983529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="13">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="19" t="str" cm="1">
-        <f t="array" ref="D1:D12">_xll.R.AD_ACP.C(DATOS!C1:F51,B2,DATOS!G1:G51,B1)</f>
-        <v>[01] Matriz de Correlaciones</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="12" t="s">
+      <c r="B20" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="13">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="20" t="str">
-        <v>[02] Matriz de Covarianza</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C3" s="2"/>
-      <c r="D3" s="20" t="str">
-        <v>[03] Gráfico de Correlaciones</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C4" s="2"/>
-      <c r="D4" s="20" t="str">
-        <v>[04] Componentes Principales</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C5" s="2"/>
-      <c r="D5" s="20" t="str">
-        <v>[05] Coordenadas de Individuos</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C6" s="2"/>
-      <c r="D6" s="20" t="str">
-        <v>[06] COS^2 de Individuos</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D7" s="19" t="str">
-        <v>[07] Contribución de individuos</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D8" s="19" t="str">
-        <v>[08] Aporte a la Varianza del CP(i)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D9" s="19" t="str">
-        <v>[09] COS^2 de variables</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D10" s="19" t="str">
-        <v>[10] Contribución de variables</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D11" s="19" t="str">
-        <v>[11] Predicción fuera de muestra</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D12" s="19" t="str">
-        <v>[12] Gráfico Biplot</v>
+      <c r="B21" s="13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/EJEMPLOS EN EXCEL/BONILLA/R4XL-ACP.xlsx
+++ b/EJEMPLOS EN EXCEL/BONILLA/R4XL-ACP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\R4XCL\LIBRERIA\EJEMPLOS EN EXCEL\BONILLA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0333B7-8167-415D-BDF2-604843E3B933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2096F964-2962-42B4-B404-1FB4DFC6C6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{02ECA6AD-477E-4230-9F67-0B262FF37303}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="13176" windowHeight="22536" activeTab="1" xr2:uid="{02ECA6AD-477E-4230-9F67-0B262FF37303}"/>
   </bookViews>
   <sheets>
     <sheet name="DATOS" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -401,7 +401,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -436,15 +436,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -458,7 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -506,20 +497,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="39" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -528,10 +510,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
@@ -555,6 +537,96 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>272364</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>539260</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>175847</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="BGD_ACP R3 C1" descr="BERT/R Graphics Device Target: ACP R3 C1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C497F8B2-4B8E-8C60-F6B6-10843560698F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1216072" y="0"/>
+          <a:ext cx="3607973" cy="3458309"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="19050" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-CR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3718,31 +3790,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC97652-6B65-4696-B2AD-5AAB829F79C3}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.796875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="10.796875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="10.796875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="24.265625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.796875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.796875" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11.265625" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="20.265625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="17.73046875" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="16.53125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="10.77734375" style="16" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="24.21875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="20.21875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="17.77734375" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5546875" hidden="1" customWidth="1"/>
     <col min="16" max="17" width="0" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.796875" hidden="1"/>
+    <col min="18" max="16384" width="10.77734375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>57</v>
       </c>
@@ -3769,7 +3841,7 @@
       <c r="O1" s="8"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -3797,7 +3869,7 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -3824,7 +3896,7 @@
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -3851,7 +3923,7 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -3878,7 +3950,7 @@
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -3905,7 +3977,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -3933,7 +4005,7 @@
       <c r="O7" s="8"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -3961,7 +4033,7 @@
       <c r="O8" s="10"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -3989,7 +4061,7 @@
       <c r="O9" s="10"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -4017,7 +4089,7 @@
       <c r="O10" s="10"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -4045,7 +4117,7 @@
       <c r="O11" s="10"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -4073,7 +4145,7 @@
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -4101,7 +4173,7 @@
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -4129,7 +4201,7 @@
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -4157,7 +4229,7 @@
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -4185,7 +4257,7 @@
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -4213,7 +4285,7 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -4241,7 +4313,7 @@
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -4269,7 +4341,7 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -4297,7 +4369,7 @@
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -4325,7 +4397,7 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -4353,7 +4425,7 @@
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -4381,7 +4453,7 @@
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -4409,7 +4481,7 @@
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -4437,7 +4509,7 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -4465,7 +4537,7 @@
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -4493,7 +4565,7 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -4521,7 +4593,7 @@
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -4549,7 +4621,7 @@
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -4577,7 +4649,7 @@
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -4605,7 +4677,7 @@
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -4633,7 +4705,7 @@
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -4661,26 +4733,26 @@
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A34" s="28">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="23">
         <v>33</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="22">
         <v>13</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D34" s="22">
         <v>337</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="22">
         <v>45</v>
       </c>
-      <c r="F34" s="27">
+      <c r="F34" s="22">
         <v>16.100000000000001</v>
       </c>
-      <c r="G34" s="27">
+      <c r="G34" s="22">
         <v>1</v>
       </c>
       <c r="L34" s="5"/>
@@ -4689,7 +4761,7 @@
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -4717,7 +4789,7 @@
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -4745,7 +4817,7 @@
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -4773,7 +4845,7 @@
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -4801,7 +4873,7 @@
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -4829,7 +4901,7 @@
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -4857,7 +4929,7 @@
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -4885,7 +4957,7 @@
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -4913,7 +4985,7 @@
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -4941,7 +5013,7 @@
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -4969,7 +5041,7 @@
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -4997,7 +5069,7 @@
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -5025,7 +5097,7 @@
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -5053,7 +5125,7 @@
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -5081,7 +5153,7 @@
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -5109,7 +5181,7 @@
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -5137,7 +5209,7 @@
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -5172,265 +5244,203 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94CF432-0BC3-48E2-8F04-A089AA429AEE}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.53125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.06640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="G2" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="str" cm="1">
-        <f t="array" ref="A3:E8">_xll.R.AD_ACP.C(DATOS!C1:F51,B21,DATOS!G1:G51,B20)</f>
-        <v/>
-      </c>
-      <c r="B3" s="2" t="str">
-        <v>Comp.1</v>
-      </c>
-      <c r="C3" s="2" t="str">
-        <v>Comp.2</v>
-      </c>
-      <c r="D3" s="2" t="str">
-        <v>Comp.3</v>
-      </c>
-      <c r="E3" s="2" t="str">
-        <v>Comp.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="20" t="str">
-        <v>Murder</v>
-      </c>
-      <c r="B4" s="23">
-        <v>0.52252038304073212</v>
-      </c>
-      <c r="C4" s="23">
-        <v>0.44009712515848026</v>
-      </c>
-      <c r="D4" s="23">
-        <v>0.43086303645059748</v>
-      </c>
-      <c r="E4" s="23">
-        <v>0.58961344417743622</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="21" t="str">
-        <v>Assault</v>
-      </c>
-      <c r="B5" s="24">
-        <v>0.58266855994970335</v>
-      </c>
-      <c r="C5" s="24">
-        <v>0.1450345134740067</v>
-      </c>
-      <c r="D5" s="24">
-        <v>0.20350645461348421</v>
-      </c>
-      <c r="E5" s="24">
-        <v>-0.77333528438714527</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="21" t="str">
-        <v>UrbanPop</v>
-      </c>
-      <c r="B6" s="24">
-        <v>0.30343383298741733</v>
-      </c>
-      <c r="C6" s="24">
-        <v>-0.88195735343791792</v>
-      </c>
-      <c r="D6" s="24">
-        <v>0.32818473841789114</v>
-      </c>
-      <c r="E6" s="24">
-        <v>0.14957912015026606</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="21" t="str">
-        <v>Rape</v>
-      </c>
-      <c r="B7" s="24">
-        <v>0.5435050207235157</v>
-      </c>
-      <c r="C7" s="24">
-        <v>-8.6201722983838172E-2</v>
-      </c>
-      <c r="D7" s="24">
-        <v>-0.81562058839928842</v>
-      </c>
-      <c r="E7" s="24">
-        <v>0.17870257743565682</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="22" t="str">
-        <v>SIGMA_2</v>
-      </c>
-      <c r="B8" s="26">
-        <v>2.5638683986264934</v>
-      </c>
-      <c r="C8" s="26">
-        <v>0.92951431006469232</v>
-      </c>
-      <c r="D8" s="25">
-        <v>0.34668046917498524</v>
-      </c>
-      <c r="E8" s="25">
-        <v>0.15993682213382676</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="19"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+        <f t="array" ref="A3">_xll.R.AD_ACP.C(DATOS!C1:F51,B21,DATOS!G1:G51,B20)</f>
+        <v>Biplot Ejecutado</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="G3" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="20" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="G4" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="23">
+      <c r="H4" s="20">
         <v>0.5358994749381556</v>
       </c>
-      <c r="C12" s="23">
+      <c r="I4" s="20">
         <v>0.41818086542095412</v>
       </c>
-      <c r="D12" s="23">
+      <c r="J4" s="20">
         <v>0.34123272795282866</v>
       </c>
-      <c r="E12" s="23">
+      <c r="K4" s="20">
         <v>0.64922780434194427</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="21" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="G5" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="24">
+      <c r="H5" s="21">
         <v>0.58318363490967051</v>
       </c>
-      <c r="C13" s="24">
+      <c r="I5" s="21">
         <v>0.18798560423193858</v>
       </c>
-      <c r="D13" s="24">
+      <c r="J5" s="21">
         <v>0.26814842783288489</v>
       </c>
-      <c r="E13" s="24">
+      <c r="K5" s="21">
         <v>-0.74340747993670964</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="21" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="G6" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="24">
+      <c r="H6" s="21">
         <v>0.27819087461943248</v>
       </c>
-      <c r="C14" s="24">
+      <c r="I6" s="21">
         <v>-0.87280619306042539</v>
       </c>
-      <c r="D14" s="24">
+      <c r="J6" s="21">
         <v>0.37801579308699945</v>
       </c>
-      <c r="E14" s="24">
+      <c r="K6" s="21">
         <v>0.13387773082424759</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="21" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="G7" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="24">
+      <c r="H7" s="21">
         <v>0.5434320914456825</v>
       </c>
-      <c r="C15" s="24">
+      <c r="I7" s="21">
         <v>-0.16731863540174619</v>
       </c>
-      <c r="D15" s="24">
+      <c r="J7" s="21">
         <v>-0.81777790762616587</v>
       </c>
-      <c r="E15" s="24">
+      <c r="K7" s="21">
         <v>8.9024322703625036E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="22" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="G8" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="26">
+      <c r="H8" s="21">
         <v>2.4802415791494927</v>
       </c>
-      <c r="C16" s="26">
+      <c r="I8" s="21">
         <v>0.98976515253983999</v>
       </c>
-      <c r="D16" s="25">
+      <c r="J8" s="21">
         <v>0.35656318058082986</v>
       </c>
-      <c r="E16" s="25">
+      <c r="K8" s="21">
         <v>0.17343008772983529</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="G9"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="G10"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>50</v>
       </c>
       <c r="B20" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>58</v>
       </c>
@@ -5440,5 +5450,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/EJEMPLOS EN EXCEL/BONILLA/R4XL-ACP.xlsx
+++ b/EJEMPLOS EN EXCEL/BONILLA/R4XL-ACP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\R4XCL\LIBRERIA\EJEMPLOS EN EXCEL\BONILLA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2096F964-2962-42B4-B404-1FB4DFC6C6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B27A725-9124-4104-8120-15DC8123DDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="13176" windowHeight="22536" activeTab="1" xr2:uid="{02ECA6AD-477E-4230-9F67-0B262FF37303}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{02ECA6AD-477E-4230-9F67-0B262FF37303}"/>
   </bookViews>
   <sheets>
     <sheet name="DATOS" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Wyoming</t>
   </si>
@@ -257,56 +257,6 @@
   </si>
   <si>
     <t>ESCALAR DATOS</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Comp.1</t>
-  </si>
-  <si>
-    <t>Comp.2</t>
-  </si>
-  <si>
-    <t>Comp.3</t>
-  </si>
-  <si>
-    <t>Comp.4</t>
-  </si>
-  <si>
-    <t>SIGMA_2</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sin </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>exclusión de registros</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Con </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>exclusión de registros</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -317,7 +267,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,14 +305,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -396,7 +338,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,7 +391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -510,12 +452,59 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -543,23 +532,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>272364</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>760412</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>76810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>539260</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>395655</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>175847</xdr:rowOff>
+      <xdr:rowOff>175845</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="BGD_ACP R3 C1" descr="BERT/R Graphics Device Target: ACP R3 C1">
+        <xdr:cNvPr id="3" name="BGD_ACP R5 C1" descr="BERT/R Graphics Device Target: ACP R5 C1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C497F8B2-4B8E-8C60-F6B6-10843560698F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D32E105-8703-F6C1-4940-313D47A5E25A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -567,8 +556,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1216072" y="0"/>
-          <a:ext cx="3607973" cy="3458309"/>
+          <a:off x="2507884" y="76810"/>
+          <a:ext cx="3470886" cy="3337535"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3791,30 +3780,30 @@
   <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="18" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="10.77734375" style="16" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="24.21875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11.21875" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="20.21875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="17.77734375" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5546875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="10.796875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="10.796875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="10.796875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="24.19921875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.796875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.796875" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.19921875" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="20.19921875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="17.796875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="16.53125" hidden="1" customWidth="1"/>
     <col min="16" max="17" width="0" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.77734375" hidden="1"/>
+    <col min="18" max="16384" width="10.796875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
         <v>57</v>
       </c>
@@ -3841,7 +3830,7 @@
       <c r="O1" s="8"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -3869,7 +3858,7 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -3896,7 +3885,7 @@
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -3923,7 +3912,7 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -3950,7 +3939,7 @@
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -3977,7 +3966,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -4005,7 +3994,7 @@
       <c r="O7" s="8"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -4033,7 +4022,7 @@
       <c r="O8" s="10"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4061,7 +4050,7 @@
       <c r="O9" s="10"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -4089,35 +4078,36 @@
       <c r="O10" s="10"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+    <row r="11" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="23">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="22">
         <v>17.399999999999999</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="22">
         <v>211</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="22">
         <v>60</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="22">
         <v>25.8</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="22">
         <v>0</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K11" s="42"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -4145,7 +4135,7 @@
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -4173,7 +4163,7 @@
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -4201,7 +4191,7 @@
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -4229,7 +4219,7 @@
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -4257,7 +4247,7 @@
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -4285,7 +4275,7 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -4313,7 +4303,7 @@
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -4341,7 +4331,7 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -4369,7 +4359,7 @@
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -4397,7 +4387,7 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -4425,7 +4415,7 @@
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -4453,7 +4443,7 @@
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -4481,7 +4471,7 @@
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -4509,7 +4499,7 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -4537,7 +4527,7 @@
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -4565,7 +4555,7 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -4593,7 +4583,7 @@
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -4621,7 +4611,7 @@
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -4649,7 +4639,7 @@
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -4677,7 +4667,7 @@
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -4705,7 +4695,7 @@
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -4733,35 +4723,36 @@
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="23">
+    <row r="34" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="35">
         <v>33</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="36">
         <v>13</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="36">
         <v>337</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34" s="36">
         <v>45</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F34" s="36">
         <v>16.100000000000001</v>
       </c>
-      <c r="G34" s="22">
-        <v>1</v>
-      </c>
-      <c r="L34" s="5"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G34" s="36">
+        <v>0</v>
+      </c>
+      <c r="K34" s="38"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -4789,7 +4780,7 @@
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -4817,7 +4808,7 @@
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -4845,7 +4836,7 @@
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -4873,7 +4864,7 @@
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -4901,7 +4892,7 @@
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -4929,7 +4920,7 @@
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -4957,7 +4948,7 @@
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -4985,7 +4976,7 @@
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -5013,7 +5004,7 @@
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -5041,7 +5032,7 @@
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -5069,7 +5060,7 @@
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -5097,7 +5088,7 @@
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -5125,7 +5116,7 @@
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -5153,7 +5144,7 @@
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -5181,7 +5172,7 @@
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -5209,7 +5200,7 @@
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -5244,209 +5235,147 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94CF432-0BC3-48E2-8F04-A089AA429AEE}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.53125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1328125" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="3"/>
+    <col min="7" max="7" width="16.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="29"/>
+    <col min="9" max="16384" width="10.6640625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="G2" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="str" cm="1">
-        <f t="array" ref="A3">_xll.R.AD_ACP.C(DATOS!C1:F51,B21,DATOS!G1:G51,B20)</f>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" t="str" cm="1">
+        <f t="array" ref="A5">_xll.R.AD_ACP.C(DATOS!C1:F51,B3,DATOS!G1:G51,B2)</f>
         <v>Biplot Ejecutado</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="G3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="G4" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="20">
-        <v>0.5358994749381556</v>
-      </c>
-      <c r="I4" s="20">
-        <v>0.41818086542095412</v>
-      </c>
-      <c r="J4" s="20">
-        <v>0.34123272795282866</v>
-      </c>
-      <c r="K4" s="20">
-        <v>0.64922780434194427</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="G5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="21">
-        <v>0.58318363490967051</v>
-      </c>
-      <c r="I5" s="21">
-        <v>0.18798560423193858</v>
-      </c>
-      <c r="J5" s="21">
-        <v>0.26814842783288489</v>
-      </c>
-      <c r="K5" s="21">
-        <v>-0.74340747993670964</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="21"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
-      <c r="G6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="21">
-        <v>0.27819087461943248</v>
-      </c>
-      <c r="I6" s="21">
-        <v>-0.87280619306042539</v>
-      </c>
-      <c r="J6" s="21">
-        <v>0.37801579308699945</v>
-      </c>
-      <c r="K6" s="21">
-        <v>0.13387773082424759</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G6" s="30"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
-      <c r="G7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="21">
-        <v>0.5434320914456825</v>
-      </c>
-      <c r="I7" s="21">
-        <v>-0.16731863540174619</v>
-      </c>
-      <c r="J7" s="21">
-        <v>-0.81777790762616587</v>
-      </c>
-      <c r="K7" s="21">
-        <v>8.9024322703625036E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G7" s="30"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
-      <c r="G8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="21">
-        <v>2.4802415791494927</v>
-      </c>
-      <c r="I8" s="21">
-        <v>0.98976515253983999</v>
-      </c>
-      <c r="J8" s="21">
-        <v>0.35656318058082986</v>
-      </c>
-      <c r="K8" s="21">
-        <v>0.17343008772983529</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G8" s="30"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
-      <c r="G9"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G9" s="30"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
-      <c r="G10"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="13">
-        <v>1</v>
-      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
